--- a/xlsx/政策_政策_管理_浏览条目正文[c]_intext.xlsx
+++ b/xlsx/政策_政策_管理_浏览条目正文[c]_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="478">
   <si>
     <t>浏览条目正文[c]</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>開會</t>
+    <t>开会</t>
   </si>
   <si>
     <t>政策_政策_管理_浏览条目正文[c]</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>創新</t>
+    <t>创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>組織</t>
+    <t>组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%BA%90</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>中產階級</t>
+    <t>中产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E7%BA%A7</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>商學院</t>
+    <t>商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E4%BA%BA</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B0%E7%9B%B8</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%BE%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>蘇美人</t>
+    <t>苏美人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%B8%E5%AD%97</t>
   </si>
   <si>
-    <t>阿拉伯數字</t>
+    <t>阿拉伯数字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%BC%8F%E8%AE%B0%E5%B8%90%E6%B3%95</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A5%BF%E4%BA%94%E7%B6%93</t>
   </si>
   <si>
-    <t>摩西五經</t>
+    <t>摩西五经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%9C%AC%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>成本會計</t>
+    <t>成本会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AF%8C%E8%AE%BA</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E4%BF%9D%E8%AD%89</t>
   </si>
   <si>
-    <t>品質保證</t>
+    <t>品质保证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%90%E5%88%B6%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>限制理論</t>
+    <t>限制理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A0%87%E7%AE%A1%E7%90%86</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%A8%99%E6%BA%96%E5%B7%AE</t>
   </si>
   <si>
-    <t>六標準差</t>
+    <t>六标准差</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%89%9F%E5%88%A9%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>非牟利機構</t>
+    <t>非牟利机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%AE%A1%E7%90%86</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>人格障礙</t>
+    <t>人格障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%89%A7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
@@ -677,19 +677,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>彼得原則</t>
+    <t>彼得原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E8%AE%8A%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>權變理論</t>
+    <t>权变理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X%E5%92%8CY%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>X和Y理論</t>
+    <t>X和Y理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E6%96%B9%E6%B3%95</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BF%AE%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>維修管理</t>
+    <t>维修管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A8%E9%87%8F%E7%AE%A1%E7%90%86</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>知識管理</t>
+    <t>知识管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%AE%A1%E7%90%86</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A1%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>專案管理</t>
+    <t>专案管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4%E7%AE%A1%E7%90%86</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E8%A8%88%E9%87%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學計量學</t>
+    <t>科学计量学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A5%E5%AD%A6</t>
@@ -983,9 +983,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Capability_management</t>
   </si>
   <si>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Systems_management</t>
@@ -1043,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -1073,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -1145,13 +1142,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -1163,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%AE%A1%E7%90%86</t>
@@ -1175,15 +1172,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>知识管理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
@@ -1217,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -1229,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -1265,25 +1259,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Team_building</t>
@@ -1301,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -1319,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%9B%85%E8%83%A1%C2%B7%E9%AB%98%E5%BE%B7%E6%8B%89%E7%89%B9</t>
@@ -1337,21 +1328,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>商学院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
   </si>
   <si>
@@ -1391,13 +1376,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -6503,7 +6488,7 @@
         <v>321</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="G162" t="n">
         <v>8</v>
@@ -6558,10 +6543,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6587,10 +6572,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6616,10 +6601,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6674,10 +6659,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6703,10 +6688,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6761,10 +6746,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>332</v>
+      </c>
+      <c r="F171" t="s">
         <v>333</v>
-      </c>
-      <c r="F171" t="s">
-        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6819,10 +6804,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6848,10 +6833,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6906,10 +6891,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>338</v>
+      </c>
+      <c r="F176" t="s">
         <v>339</v>
-      </c>
-      <c r="F176" t="s">
-        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6964,10 +6949,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6993,10 +6978,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>342</v>
+      </c>
+      <c r="F179" t="s">
         <v>343</v>
-      </c>
-      <c r="F179" t="s">
-        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7051,10 +7036,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>344</v>
+      </c>
+      <c r="F181" t="s">
         <v>345</v>
-      </c>
-      <c r="F181" t="s">
-        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7080,10 +7065,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" t="s">
         <v>347</v>
-      </c>
-      <c r="F182" t="s">
-        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7109,10 +7094,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>348</v>
+      </c>
+      <c r="F183" t="s">
         <v>349</v>
-      </c>
-      <c r="F183" t="s">
-        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7138,10 +7123,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>350</v>
+      </c>
+      <c r="F184" t="s">
         <v>351</v>
-      </c>
-      <c r="F184" t="s">
-        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7167,10 +7152,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>352</v>
+      </c>
+      <c r="F185" t="s">
         <v>353</v>
-      </c>
-      <c r="F185" t="s">
-        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7196,10 +7181,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>354</v>
+      </c>
+      <c r="F186" t="s">
         <v>355</v>
-      </c>
-      <c r="F186" t="s">
-        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7225,10 +7210,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>356</v>
+      </c>
+      <c r="F187" t="s">
         <v>357</v>
-      </c>
-      <c r="F187" t="s">
-        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7254,10 +7239,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>358</v>
+      </c>
+      <c r="F188" t="s">
         <v>359</v>
-      </c>
-      <c r="F188" t="s">
-        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7283,10 +7268,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>360</v>
+      </c>
+      <c r="F189" t="s">
         <v>361</v>
-      </c>
-      <c r="F189" t="s">
-        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7312,10 +7297,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>362</v>
+      </c>
+      <c r="F190" t="s">
         <v>363</v>
-      </c>
-      <c r="F190" t="s">
-        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7341,10 +7326,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>364</v>
+      </c>
+      <c r="F191" t="s">
         <v>365</v>
-      </c>
-      <c r="F191" t="s">
-        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>5</v>
@@ -7370,10 +7355,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F192" t="s">
         <v>367</v>
-      </c>
-      <c r="F192" t="s">
-        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7399,10 +7384,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>368</v>
+      </c>
+      <c r="F193" t="s">
         <v>369</v>
-      </c>
-      <c r="F193" t="s">
-        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7428,10 +7413,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>370</v>
+      </c>
+      <c r="F194" t="s">
         <v>371</v>
-      </c>
-      <c r="F194" t="s">
-        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7457,10 +7442,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>372</v>
+      </c>
+      <c r="F195" t="s">
         <v>373</v>
-      </c>
-      <c r="F195" t="s">
-        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7486,10 +7471,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" t="s">
         <v>375</v>
-      </c>
-      <c r="F196" t="s">
-        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7515,10 +7500,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>376</v>
+      </c>
+      <c r="F197" t="s">
         <v>377</v>
-      </c>
-      <c r="F197" t="s">
-        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7544,10 +7529,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>378</v>
+      </c>
+      <c r="F198" t="s">
         <v>379</v>
-      </c>
-      <c r="F198" t="s">
-        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7573,10 +7558,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>380</v>
+      </c>
+      <c r="F199" t="s">
         <v>381</v>
-      </c>
-      <c r="F199" t="s">
-        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7631,10 +7616,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>382</v>
+      </c>
+      <c r="F201" t="s">
         <v>383</v>
-      </c>
-      <c r="F201" t="s">
-        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7660,10 +7645,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>384</v>
+      </c>
+      <c r="F202" t="s">
         <v>385</v>
-      </c>
-      <c r="F202" t="s">
-        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7689,10 +7674,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>248</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -7718,10 +7703,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7747,10 +7732,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7776,10 +7761,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7805,10 +7790,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7834,10 +7819,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7892,10 +7877,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7921,10 +7906,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7950,10 +7935,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -7979,10 +7964,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8008,10 +7993,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8037,10 +8022,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8066,10 +8051,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8095,10 +8080,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8124,10 +8109,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>158</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8153,10 +8138,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8182,10 +8167,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8211,10 +8196,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8298,10 +8283,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8327,10 +8312,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8356,10 +8341,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8385,10 +8370,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G227" t="n">
         <v>13</v>
@@ -8414,10 +8399,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8443,10 +8428,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8472,10 +8457,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8501,10 +8486,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8530,10 +8515,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>58</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -8559,10 +8544,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8588,10 +8573,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>140</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8617,10 +8602,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8646,10 +8631,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8675,10 +8660,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8704,10 +8689,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8733,10 +8718,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8791,10 +8776,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8849,10 +8834,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8878,10 +8863,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8907,10 +8892,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8936,10 +8921,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8965,10 +8950,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8994,10 +8979,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9023,10 +9008,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9052,10 +9037,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9081,10 +9066,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9110,10 +9095,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F252" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9139,10 +9124,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9168,10 +9153,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9197,10 +9182,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F255" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
